--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>hate</t>
@@ -73,33 +76,24 @@
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -112,7 +106,7 @@
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>social</t>
@@ -476,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,10 +478,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -545,13 +539,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -563,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -587,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -595,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -645,13 +639,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -663,19 +657,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -687,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -695,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -713,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,13 +739,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -763,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -795,13 +789,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -813,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.6206896551724138</v>
@@ -845,13 +839,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -863,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -895,13 +889,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -913,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.5166666666666667</v>
@@ -945,13 +939,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -963,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.3703703703703703</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -995,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1013,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.0482695810564663</v>
+        <v>0.05009107468123861</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1037,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1045,13 +1039,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4492753623188406</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1063,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1071,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.391304347826087</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1089,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1097,13 +1091,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.358974358974359</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1115,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1123,13 +1117,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3191489361702128</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1141,33 +1135,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
